--- a/visio图/G1 - Region 图.xlsx
+++ b/visio图/G1 - Region 图.xlsx
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -253,6 +253,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,9 +264,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,16 +480,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>130974</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>202405</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>142880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>202406</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>390530</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>278606</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -495,8 +498,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12989724" y="6298405"/>
-          <a:ext cx="1297781" cy="1"/>
+          <a:off x="11325225" y="7134225"/>
+          <a:ext cx="638180" cy="2381"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1141,15 +1144,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:U34"/>
+  <dimension ref="B4:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1171,14 +1174,14 @@
       </c>
       <c r="O4" s="10"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-    </row>
-    <row r="5" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1204,14 +1207,14 @@
         <v>8</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-    </row>
-    <row r="6" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H6" s="12" t="s">
         <v>12</v>
       </c>
@@ -1227,14 +1230,14 @@
         <v>8</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-    </row>
-    <row r="7" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H7" s="10"/>
       <c r="I7" s="8" t="s">
         <v>4</v>
@@ -1248,14 +1251,14 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-    </row>
-    <row r="8" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1279,14 +1282,14 @@
         <v>10</v>
       </c>
       <c r="Q8" s="5"/>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-    </row>
-    <row r="9" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H9" s="10"/>
       <c r="I9" s="8" t="s">
         <v>6</v>
@@ -1299,13 +1302,13 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-    </row>
-    <row r="10" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1324,15 +1327,15 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-    </row>
-    <row r="11" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1352,15 +1355,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H14" s="14" t="s">
+    <row r="14" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="16" spans="8:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="16" spans="8:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H16" s="8" t="s">
         <v>4</v>
       </c>
@@ -1382,14 +1385,19 @@
       </c>
       <c r="O16" s="10"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-    </row>
-    <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+    </row>
+    <row r="17" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H17" s="9" t="s">
         <v>9</v>
       </c>
@@ -1415,14 +1423,19 @@
         <v>8</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-    </row>
-    <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1438,14 +1451,19 @@
         <v>8</v>
       </c>
       <c r="Q18" s="3"/>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-    </row>
-    <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+    </row>
+    <row r="19" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H19" s="10"/>
       <c r="I19" s="8" t="s">
         <v>4</v>
@@ -1459,14 +1477,19 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-    </row>
-    <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+    </row>
+    <row r="20" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H20" s="12" t="s">
         <v>14</v>
       </c>
@@ -1490,14 +1513,19 @@
         <v>10</v>
       </c>
       <c r="Q20" s="5"/>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-    </row>
-    <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+    </row>
+    <row r="21" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H21" s="10"/>
       <c r="I21" s="8" t="s">
         <v>6</v>
@@ -1510,13 +1538,18 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-    </row>
-    <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+    </row>
+    <row r="22" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H22" s="9" t="s">
         <v>9</v>
       </c>
@@ -1535,15 +1568,20 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-    </row>
-    <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+    </row>
+    <row r="23" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1562,12 +1600,17 @@
       <c r="O23" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+    </row>
+    <row r="27" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="H27" s="8" t="s">
         <v>4</v>
       </c>
@@ -1593,18 +1636,18 @@
         <v>10</v>
       </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-    </row>
-    <row r="28" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="H28" s="10"/>
       <c r="I28" s="8" t="s">
         <v>4</v>
@@ -1626,18 +1669,18 @@
         <v>8</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-    </row>
-    <row r="29" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+    </row>
+    <row r="29" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -1651,18 +1694,18 @@
         <v>8</v>
       </c>
       <c r="Q29" s="3"/>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-    </row>
-    <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="H30" s="10"/>
       <c r="I30" s="8" t="s">
         <v>4</v>
@@ -1674,18 +1717,18 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="13" t="s">
+      <c r="R30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-    </row>
-    <row r="31" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11" t="s">
@@ -1705,18 +1748,18 @@
       </c>
       <c r="O31" s="10"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="13" t="s">
+      <c r="R31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-    </row>
-    <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="H32" s="10"/>
       <c r="I32" s="8" t="s">
         <v>6</v>
@@ -1727,17 +1770,17 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
     </row>
     <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
       <c r="H33" s="9" t="s">
         <v>9</v>
       </c>
@@ -1754,19 +1797,19 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
     </row>
     <row r="34" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
       <c r="H34" s="8" t="s">
         <v>6</v>
       </c>
@@ -1787,29 +1830,30 @@
       <c r="O34" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="Y16:AC23"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R19:U19"/>
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="R6:U6"/>
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="R8:U8"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="R29:U29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
